--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272B10D3-AC57-421C-A5D8-B0EF8578A854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E20E94-F995-4DF4-B3D9-C94B977BF460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27810" yWindow="4065" windowWidth="19200" windowHeight="11175" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Transmission Rates</t>
   </si>
@@ -56,7 +56,25 @@
     <t>Time Span(in days)</t>
   </si>
   <si>
-    <t>Population Size</t>
+    <t>찾아보기</t>
+  </si>
+  <si>
+    <t>Population Size(S)</t>
+  </si>
+  <si>
+    <t>Infectious</t>
+  </si>
+  <si>
+    <t>Vaccinated</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>Appling  quarantine after the days</t>
+  </si>
+  <si>
+    <t>Under quarantine transmission rates</t>
   </si>
 </sst>
 </file>
@@ -429,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA257260-AAAD-4C41-85BD-108389F37899}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -440,7 +458,7 @@
     <col min="5" max="5" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>0.18</v>
       </c>
@@ -454,7 +472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0.06</v>
       </c>
@@ -465,7 +483,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.03</v>
       </c>
@@ -473,10 +491,10 @@
         <v>0.04</v>
       </c>
       <c r="C3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.12</v>
       </c>
@@ -489,8 +507,11 @@
       <c r="E5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -501,15 +522,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0</v>
       </c>
@@ -523,7 +547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>300</v>
       </c>
@@ -531,7 +555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -542,7 +566,93 @@
         <v>3000</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>0.09</v>
+      </c>
+      <c r="B23">
+        <v>0.06</v>
+      </c>
+      <c r="C23">
+        <v>0.03</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>0.06</v>
+      </c>
+      <c r="B24">
+        <v>0.06</v>
+      </c>
+      <c r="C24">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>0.03</v>
+      </c>
+      <c r="B25">
+        <v>0.04</v>
+      </c>
+      <c r="C25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E20E94-F995-4DF4-B3D9-C94B977BF460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208227CD-2A07-48C7-B7EC-D5737FB0A860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Transmission Rates</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Time Span(in days)</t>
   </si>
   <si>
-    <t>찾아보기</t>
-  </si>
-  <si>
     <t>Population Size(S)</t>
   </si>
   <si>
@@ -75,6 +72,27 @@
   </si>
   <si>
     <t>Under quarantine transmission rates</t>
+  </si>
+  <si>
+    <t>each year different recode globaly; 2020: 0.07-0.1; 20210: 1-0.12; 2022: 0.12-0.15</t>
+  </si>
+  <si>
+    <t>7~10days; 10~14days; 14~21days</t>
+  </si>
+  <si>
+    <t>6~7month 70%dffective</t>
+  </si>
+  <si>
+    <t>6~7month =200</t>
+  </si>
+  <si>
+    <t>contect matrix</t>
+  </si>
+  <si>
+    <t>2023 korea</t>
+  </si>
+  <si>
+    <t>This averge contact rate in the US * with 0.01(mumber that I choes) = transmission rates</t>
   </si>
 </sst>
 </file>
@@ -111,8 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA257260-AAAD-4C41-85BD-108389F37899}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
@@ -455,63 +474,112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>0.18</v>
+        <f>O1*0.01</f>
+        <v>0.17800000000000002</v>
       </c>
       <c r="B1">
-        <v>0.06</v>
+        <f t="shared" ref="B1:C1" si="0">P1*0.01</f>
+        <v>5.5166666700000005E-2</v>
       </c>
       <c r="C1">
-        <v>0.03</v>
+        <f t="shared" si="0"/>
+        <v>2.5125000000000001E-2</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1">
+        <v>17.8</v>
+      </c>
+      <c r="P1">
+        <v>5.5166666700000002</v>
+      </c>
+      <c r="Q1">
+        <v>2.5125000000000002</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>0.06</v>
+        <f t="shared" ref="A2:A3" si="1">O2*0.01</f>
+        <v>5.5166666700000005E-2</v>
       </c>
       <c r="B2">
-        <v>0.12</v>
+        <f t="shared" ref="B2:B3" si="2">P2*0.01</f>
+        <v>0.1216666667</v>
       </c>
       <c r="C2">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <f t="shared" ref="C2:C3" si="3">Q2*0.01</f>
+        <v>3.8083333300000001E-2</v>
+      </c>
+      <c r="O2">
+        <v>5.5166666700000002</v>
+      </c>
+      <c r="P2">
+        <v>12.16666667</v>
+      </c>
+      <c r="Q2">
+        <v>3.80833333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>0.03</v>
+        <f t="shared" si="1"/>
+        <v>2.5125000000000001E-2</v>
       </c>
       <c r="B3">
-        <v>0.04</v>
+        <f t="shared" si="2"/>
+        <v>3.8083333300000001E-2</v>
       </c>
       <c r="C3">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <f t="shared" si="3"/>
+        <v>4.6062499999999999E-2</v>
+      </c>
+      <c r="O3">
+        <v>2.5125000000000002</v>
+      </c>
+      <c r="P3">
+        <v>3.80833333</v>
+      </c>
+      <c r="Q3">
+        <v>4.6062500000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>0.12</v>
+        <v>0.125</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C5">
-        <v>0.08</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -522,18 +590,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>5.0000000000000001E-4</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0</v>
       </c>
@@ -547,7 +620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>300</v>
       </c>
@@ -555,21 +628,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>2000</v>
-      </c>
-      <c r="B15">
-        <v>3000</v>
-      </c>
-      <c r="C15">
-        <v>3000</v>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>6246073</v>
+      </c>
+      <c r="B15" s="1">
+        <v>31530507</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13972160</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -580,79 +656,115 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <f>A1*1*0.5</f>
+        <v>8.900000000000001E-2</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:C23" si="4">B1*1</f>
+        <v>5.5166666700000005E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>2.5125000000000001E-2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23">
+        <v>17.8</v>
+      </c>
+      <c r="P23">
+        <v>5.5166666700000002</v>
+      </c>
+      <c r="Q23">
+        <v>2.5125000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <f t="shared" ref="A24:C24" si="5">A2*1</f>
+        <v>5.5166666700000005E-2</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="5"/>
+        <v>0.1216666667</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="5"/>
+        <v>3.8083333300000001E-2</v>
+      </c>
+      <c r="O24">
+        <v>5.5166666700000002</v>
+      </c>
+      <c r="P24">
+        <v>12.16666667</v>
+      </c>
+      <c r="Q24">
+        <v>3.80833333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <f t="shared" ref="A25:C25" si="6">A3*1</f>
+        <v>2.5125000000000001E-2</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="6"/>
+        <v>3.8083333300000001E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="6"/>
+        <v>4.6062499999999999E-2</v>
+      </c>
+      <c r="O25">
+        <v>2.5125000000000002</v>
+      </c>
+      <c r="P25">
+        <v>3.80833333</v>
+      </c>
+      <c r="Q25">
+        <v>4.6062500000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>200</v>
+      </c>
+      <c r="E27" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>0.09</v>
-      </c>
-      <c r="B23">
-        <v>0.06</v>
-      </c>
-      <c r="C23">
-        <v>0.03</v>
-      </c>
-      <c r="E23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>0.06</v>
-      </c>
-      <c r="B24">
-        <v>0.06</v>
-      </c>
-      <c r="C24">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>0.03</v>
-      </c>
-      <c r="B25">
-        <v>0.04</v>
-      </c>
-      <c r="C25">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <v>30</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208227CD-2A07-48C7-B7EC-D5737FB0A860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40279C2-A16C-49CE-AA3E-2A2A43960914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="14085" yWindow="4695" windowWidth="19140" windowHeight="11145" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>2023 korea</t>
   </si>
   <si>
-    <t>This averge contact rate in the US * with 0.01(mumber that I choes) = transmission rates</t>
+    <t>This averge contact rate in the US * with 0.1(mumber that I choes) = transmission rates</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40279C2-A16C-49CE-AA3E-2A2A43960914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4408BDE0-6D57-4005-87EA-BD70C7B96820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14085" yWindow="4695" windowWidth="19140" windowHeight="11145" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>Appling  quarantine after the days</t>
   </si>
   <si>
-    <t>Under quarantine transmission rates</t>
-  </si>
-  <si>
     <t>each year different recode globaly; 2020: 0.07-0.1; 20210: 1-0.12; 2022: 0.12-0.15</t>
   </si>
   <si>
@@ -93,6 +90,9 @@
   </si>
   <si>
     <t>This averge contact rate in the US * with 0.1(mumber that I choes) = transmission rates</t>
+  </si>
+  <si>
+    <t>Under (Social Distancing)quarantine transmission rates</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1">
         <v>17.8</v>
@@ -508,7 +508,7 @@
         <v>2.5125000000000002</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -571,12 +571,12 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
@@ -598,12 +598,12 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
@@ -642,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -701,7 +701,7 @@
         <v>2.5125000000000001E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="O23">
         <v>17.8</v>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4408BDE0-6D57-4005-87EA-BD70C7B96820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D20B9BC-6288-41DB-8984-1C19F661A8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="16950" yWindow="1095" windowWidth="38700" windowHeight="15225" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D20B9BC-6288-41DB-8984-1C19F661A8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96119D6-61C4-4295-9FD4-400E2FF493BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16950" yWindow="1095" windowWidth="38700" windowHeight="15225" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96119D6-61C4-4295-9FD4-400E2FF493BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91395F3F-9F92-45AF-850D-853704382D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Transmission Rates</t>
   </si>
@@ -89,10 +89,19 @@
     <t>2023 korea</t>
   </si>
   <si>
-    <t>This averge contact rate in the US * with 0.1(mumber that I choes) = transmission rates</t>
-  </si>
-  <si>
     <t>Under (Social Distancing)quarantine transmission rates</t>
+  </si>
+  <si>
+    <t>8days</t>
+  </si>
+  <si>
+    <t>12days</t>
+  </si>
+  <si>
+    <t>21days</t>
+  </si>
+  <si>
+    <t>This averge contact rate in the US * with 0.01(mumber that I choes) = transmission rates</t>
   </si>
 </sst>
 </file>
@@ -466,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA257260-AAAD-4C41-85BD-108389F37899}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -496,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O1">
         <v>17.8</v>
@@ -565,17 +574,26 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="C5">
-        <v>5.8999999999999997E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="F6" t="s">
+      <c r="O6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -701,7 +719,7 @@
         <v>2.5125000000000001E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O23">
         <v>17.8</v>
@@ -767,6 +785,138 @@
         <v>10</v>
       </c>
     </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="L31">
+        <v>0.9</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <f>L31^M31</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="L32">
+        <v>0.9</v>
+      </c>
+      <c r="M32">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32:N41" si="7">L32^M32</f>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="33" spans="12:14" x14ac:dyDescent="0.15">
+      <c r="L33">
+        <v>0.9</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="7"/>
+        <v>0.72900000000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="12:14" x14ac:dyDescent="0.15">
+      <c r="L34">
+        <v>0.9</v>
+      </c>
+      <c r="M34">
+        <v>4</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="7"/>
+        <v>0.65610000000000013</v>
+      </c>
+    </row>
+    <row r="35" spans="12:14" x14ac:dyDescent="0.15">
+      <c r="L35">
+        <v>0.9</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="7"/>
+        <v>0.59049000000000018</v>
+      </c>
+    </row>
+    <row r="36" spans="12:14" x14ac:dyDescent="0.15">
+      <c r="L36">
+        <v>0.9</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="7"/>
+        <v>0.53144100000000016</v>
+      </c>
+    </row>
+    <row r="37" spans="12:14" x14ac:dyDescent="0.15">
+      <c r="L37">
+        <v>0.9</v>
+      </c>
+      <c r="M37">
+        <v>7</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="7"/>
+        <v>0.47829690000000014</v>
+      </c>
+    </row>
+    <row r="38" spans="12:14" x14ac:dyDescent="0.15">
+      <c r="L38">
+        <v>0.9</v>
+      </c>
+      <c r="M38">
+        <v>8</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="7"/>
+        <v>0.43046721000000016</v>
+      </c>
+    </row>
+    <row r="39" spans="12:14" x14ac:dyDescent="0.15">
+      <c r="L39">
+        <v>0.9</v>
+      </c>
+      <c r="M39">
+        <v>9</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="7"/>
+        <v>0.38742048900000015</v>
+      </c>
+    </row>
+    <row r="40" spans="12:14" x14ac:dyDescent="0.15">
+      <c r="L40">
+        <v>0.9</v>
+      </c>
+      <c r="M40">
+        <v>10</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="7"/>
+        <v>0.34867844010000015</v>
+      </c>
+    </row>
+    <row r="41" spans="12:14" x14ac:dyDescent="0.15">
+      <c r="L41">
+        <v>0.9</v>
+      </c>
+      <c r="M41">
+        <v>11</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>0.31381059609000017</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91395F3F-9F92-45AF-850D-853704382D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0A0BCE-A8EE-449F-8018-294A4345CA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="38700" windowHeight="15225" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S54" sqref="S54"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -640,7 +640,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0A0BCE-A8EE-449F-8018-294A4345CA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B787F1E5-7E12-46EC-AAC7-D85A38CCE1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="38700" windowHeight="15225" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -486,6 +486,7 @@
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
@@ -662,6 +663,10 @@
       <c r="F15" t="s">
         <v>16</v>
       </c>
+      <c r="O15" s="1">
+        <f>SUM(A15:C15)</f>
+        <v>51748740</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B787F1E5-7E12-46EC-AAC7-D85A38CCE1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F81B9EF-A032-44F0-9EBE-95AB7E1DB179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -641,7 +641,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F81B9EF-A032-44F0-9EBE-95AB7E1DB179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38045D-3DF3-460A-B097-632771E4326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,18 +478,18 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
-    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>O1*0.01</f>
         <v>0.17800000000000002</v>
@@ -521,7 +521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A3" si="1">O2*0.01</f>
         <v>5.5166666700000005E-2</v>
@@ -544,7 +544,7 @@
         <v>3.80833333</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="1"/>
         <v>2.5125000000000001E-2</v>
@@ -567,7 +567,7 @@
         <v>4.6062500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.125</v>
       </c>
@@ -593,12 +593,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -620,12 +620,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -639,15 +639,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6246073</v>
       </c>
@@ -668,7 +668,7 @@
         <v>51748740</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -710,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>A1*1*0.5</f>
         <v>8.900000000000001E-2</v>
@@ -736,7 +736,7 @@
         <v>2.5125000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:C24" si="5">A2*1</f>
         <v>5.5166666700000005E-2</v>
@@ -759,7 +759,7 @@
         <v>3.80833333</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:C25" si="6">A3*1</f>
         <v>2.5125000000000001E-2</v>
@@ -782,7 +782,7 @@
         <v>4.6062500000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>200</v>
       </c>
@@ -790,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L31">
         <v>0.9</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L32">
         <v>0.9</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L33">
         <v>0.9</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0.72900000000000009</v>
       </c>
     </row>
-    <row r="34" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L34">
         <v>0.9</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0.65610000000000013</v>
       </c>
     </row>
-    <row r="35" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L35">
         <v>0.9</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0.59049000000000018</v>
       </c>
     </row>
-    <row r="36" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L36">
         <v>0.9</v>
       </c>
@@ -862,7 +862,7 @@
         <v>0.53144100000000016</v>
       </c>
     </row>
-    <row r="37" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0.47829690000000014</v>
       </c>
     </row>
-    <row r="38" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L38">
         <v>0.9</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0.43046721000000016</v>
       </c>
     </row>
-    <row r="39" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L39">
         <v>0.9</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0.38742048900000015</v>
       </c>
     </row>
-    <row r="40" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L40">
         <v>0.9</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0.34867844010000015</v>
       </c>
     </row>
-    <row r="41" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L41">
         <v>0.9</v>
       </c>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38045D-3DF3-460A-B097-632771E4326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311E8F57-8C21-41EC-A5C3-F027C33E8ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,18 +478,18 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1">
         <f>O1*0.01</f>
         <v>0.17800000000000002</v>
@@ -521,7 +521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2">
         <f t="shared" ref="A2:A3" si="1">O2*0.01</f>
         <v>5.5166666700000005E-2</v>
@@ -544,7 +544,7 @@
         <v>3.80833333</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <f t="shared" si="1"/>
         <v>2.5125000000000001E-2</v>
@@ -567,7 +567,7 @@
         <v>4.6062500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.125</v>
       </c>
@@ -593,12 +593,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="O6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -620,12 +620,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0</v>
       </c>
@@ -639,15 +639,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>6246073</v>
       </c>
@@ -668,7 +668,7 @@
         <v>51748740</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0</v>
       </c>
@@ -710,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <f>A1*1*0.5</f>
         <v>8.900000000000001E-2</v>
@@ -736,7 +736,7 @@
         <v>2.5125000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" ref="A24:C24" si="5">A2*1</f>
         <v>5.5166666700000005E-2</v>
@@ -759,7 +759,7 @@
         <v>3.80833333</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" ref="A25:C25" si="6">A3*1</f>
         <v>2.5125000000000001E-2</v>
@@ -782,7 +782,7 @@
         <v>4.6062500000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>200</v>
       </c>
@@ -790,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="L31">
         <v>0.9</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="L32">
         <v>0.9</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L33">
         <v>0.9</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0.72900000000000009</v>
       </c>
     </row>
-    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L34">
         <v>0.9</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0.65610000000000013</v>
       </c>
     </row>
-    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L35">
         <v>0.9</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0.59049000000000018</v>
       </c>
     </row>
-    <row r="36" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L36">
         <v>0.9</v>
       </c>
@@ -862,7 +862,7 @@
         <v>0.53144100000000016</v>
       </c>
     </row>
-    <row r="37" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0.47829690000000014</v>
       </c>
     </row>
-    <row r="38" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L38">
         <v>0.9</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0.43046721000000016</v>
       </c>
     </row>
-    <row r="39" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L39">
         <v>0.9</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0.38742048900000015</v>
       </c>
     </row>
-    <row r="40" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L40">
         <v>0.9</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0.34867844010000015</v>
       </c>
     </row>
-    <row r="41" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L41">
         <v>0.9</v>
       </c>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311E8F57-8C21-41EC-A5C3-F027C33E8ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E52FBDB-AA26-4028-94E3-362E497E87E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
@@ -641,7 +641,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E52FBDB-AA26-4028-94E3-362E497E87E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80370AB6-21AC-4025-ACA8-E44DCB2F0775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -641,7 +641,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>150</v>
+        <v>600</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80370AB6-21AC-4025-ACA8-E44DCB2F0775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34F1506-CF89-4A6A-810E-CC6213E3F30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,18 +478,18 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
-    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>O1*0.01</f>
         <v>0.17800000000000002</v>
@@ -521,7 +521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A3" si="1">O2*0.01</f>
         <v>5.5166666700000005E-2</v>
@@ -544,7 +544,7 @@
         <v>3.80833333</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="1"/>
         <v>2.5125000000000001E-2</v>
@@ -567,7 +567,7 @@
         <v>4.6062500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.125</v>
       </c>
@@ -593,12 +593,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -609,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -620,12 +620,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -639,15 +639,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6246073</v>
       </c>
@@ -668,7 +668,7 @@
         <v>51748740</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -682,7 +682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -710,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>A1*1*0.5</f>
         <v>8.900000000000001E-2</v>
@@ -736,7 +736,7 @@
         <v>2.5125000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:C24" si="5">A2*1</f>
         <v>5.5166666700000005E-2</v>
@@ -759,7 +759,7 @@
         <v>3.80833333</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:C25" si="6">A3*1</f>
         <v>2.5125000000000001E-2</v>
@@ -782,7 +782,7 @@
         <v>4.6062500000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>200</v>
       </c>
@@ -790,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L31">
         <v>0.9</v>
       </c>
@@ -802,7 +802,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L32">
         <v>0.9</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L33">
         <v>0.9</v>
       </c>
@@ -826,7 +826,7 @@
         <v>0.72900000000000009</v>
       </c>
     </row>
-    <row r="34" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L34">
         <v>0.9</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0.65610000000000013</v>
       </c>
     </row>
-    <row r="35" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L35">
         <v>0.9</v>
       </c>
@@ -850,7 +850,7 @@
         <v>0.59049000000000018</v>
       </c>
     </row>
-    <row r="36" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L36">
         <v>0.9</v>
       </c>
@@ -862,7 +862,7 @@
         <v>0.53144100000000016</v>
       </c>
     </row>
-    <row r="37" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -874,7 +874,7 @@
         <v>0.47829690000000014</v>
       </c>
     </row>
-    <row r="38" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L38">
         <v>0.9</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0.43046721000000016</v>
       </c>
     </row>
-    <row r="39" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L39">
         <v>0.9</v>
       </c>
@@ -898,7 +898,7 @@
         <v>0.38742048900000015</v>
       </c>
     </row>
-    <row r="40" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L40">
         <v>0.9</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0.34867844010000015</v>
       </c>
     </row>
-    <row r="41" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L41">
         <v>0.9</v>
       </c>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34F1506-CF89-4A6A-810E-CC6213E3F30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C94BE7-A987-41BF-9DC3-C7B0DD127D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Transmission Rates</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>This averge contact rate in the US * with 0.01(mumber that I choes) = transmission rates</t>
+  </si>
+  <si>
+    <t>**Note: We used this value as initial guess; for computed(fits transmiession rate) go to Fitted_Beta_Matrix.csv</t>
   </si>
 </sst>
 </file>
@@ -478,18 +481,18 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1">
         <f>O1*0.01</f>
         <v>0.17800000000000002</v>
@@ -521,7 +524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2">
         <f t="shared" ref="A2:A3" si="1">O2*0.01</f>
         <v>5.5166666700000005E-2</v>
@@ -534,6 +537,9 @@
         <f t="shared" ref="C2:C3" si="3">Q2*0.01</f>
         <v>3.8083333300000001E-2</v>
       </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
       <c r="O2">
         <v>5.5166666700000002</v>
       </c>
@@ -544,7 +550,7 @@
         <v>3.80833333</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <f t="shared" si="1"/>
         <v>2.5125000000000001E-2</v>
@@ -567,7 +573,7 @@
         <v>4.6062500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.125</v>
       </c>
@@ -593,12 +599,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="O6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -609,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -620,12 +626,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0</v>
       </c>
@@ -639,7 +645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -647,7 +653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>6246073</v>
       </c>
@@ -668,7 +674,7 @@
         <v>51748740</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -682,7 +688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0</v>
       </c>
@@ -696,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0</v>
       </c>
@@ -710,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <f>A1*1*0.5</f>
         <v>8.900000000000001E-2</v>
@@ -736,7 +742,7 @@
         <v>2.5125000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" ref="A24:C24" si="5">A2*1</f>
         <v>5.5166666700000005E-2</v>
@@ -759,7 +765,7 @@
         <v>3.80833333</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" ref="A25:C25" si="6">A3*1</f>
         <v>2.5125000000000001E-2</v>
@@ -782,7 +788,7 @@
         <v>4.6062500000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>200</v>
       </c>
@@ -790,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="L31">
         <v>0.9</v>
       </c>
@@ -802,7 +808,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="L32">
         <v>0.9</v>
       </c>
@@ -814,7 +820,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L33">
         <v>0.9</v>
       </c>
@@ -826,7 +832,7 @@
         <v>0.72900000000000009</v>
       </c>
     </row>
-    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L34">
         <v>0.9</v>
       </c>
@@ -838,7 +844,7 @@
         <v>0.65610000000000013</v>
       </c>
     </row>
-    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L35">
         <v>0.9</v>
       </c>
@@ -850,7 +856,7 @@
         <v>0.59049000000000018</v>
       </c>
     </row>
-    <row r="36" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L36">
         <v>0.9</v>
       </c>
@@ -862,7 +868,7 @@
         <v>0.53144100000000016</v>
       </c>
     </row>
-    <row r="37" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -874,7 +880,7 @@
         <v>0.47829690000000014</v>
       </c>
     </row>
-    <row r="38" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L38">
         <v>0.9</v>
       </c>
@@ -886,7 +892,7 @@
         <v>0.43046721000000016</v>
       </c>
     </row>
-    <row r="39" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L39">
         <v>0.9</v>
       </c>
@@ -898,7 +904,7 @@
         <v>0.38742048900000015</v>
       </c>
     </row>
-    <row r="40" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L40">
         <v>0.9</v>
       </c>
@@ -910,7 +916,7 @@
         <v>0.34867844010000015</v>
       </c>
     </row>
-    <row r="41" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:14" x14ac:dyDescent="0.15">
       <c r="L41">
         <v>0.9</v>
       </c>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C94BE7-A987-41BF-9DC3-C7B0DD127D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BD92FD-A7A2-4E73-B679-52FE1B6D58E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="-22180" yWindow="3420" windowWidth="19200" windowHeight="10500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,19 +480,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA257260-AAAD-4C41-85BD-108389F37899}">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
-    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="5" max="5" width="34.453125" customWidth="1"/>
+    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>O1*0.01</f>
         <v>0.17800000000000002</v>
@@ -524,7 +524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A3" si="1">O2*0.01</f>
         <v>5.5166666700000005E-2</v>
@@ -550,7 +550,7 @@
         <v>3.80833333</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="1"/>
         <v>2.5125000000000001E-2</v>
@@ -573,7 +573,7 @@
         <v>4.6062500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.125</v>
       </c>
@@ -599,12 +599,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -626,12 +626,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -645,15 +645,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6246073</v>
       </c>
@@ -674,7 +674,7 @@
         <v>51748740</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -688,7 +688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -702,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -716,7 +716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>A1*1*0.5</f>
         <v>8.900000000000001E-2</v>
@@ -742,7 +742,7 @@
         <v>2.5125000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24:C24" si="5">A2*1</f>
         <v>5.5166666700000005E-2</v>
@@ -765,7 +765,7 @@
         <v>3.80833333</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:C25" si="6">A3*1</f>
         <v>2.5125000000000001E-2</v>
@@ -788,7 +788,7 @@
         <v>4.6062500000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>200</v>
       </c>
@@ -796,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L31">
         <v>0.9</v>
       </c>
@@ -808,7 +808,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L32">
         <v>0.9</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L33">
         <v>0.9</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0.72900000000000009</v>
       </c>
     </row>
-    <row r="34" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L34">
         <v>0.9</v>
       </c>
@@ -844,7 +844,7 @@
         <v>0.65610000000000013</v>
       </c>
     </row>
-    <row r="35" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L35">
         <v>0.9</v>
       </c>
@@ -856,7 +856,7 @@
         <v>0.59049000000000018</v>
       </c>
     </row>
-    <row r="36" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L36">
         <v>0.9</v>
       </c>
@@ -868,7 +868,7 @@
         <v>0.53144100000000016</v>
       </c>
     </row>
-    <row r="37" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -880,7 +880,7 @@
         <v>0.47829690000000014</v>
       </c>
     </row>
-    <row r="38" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L38">
         <v>0.9</v>
       </c>
@@ -892,7 +892,7 @@
         <v>0.43046721000000016</v>
       </c>
     </row>
-    <row r="39" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L39">
         <v>0.9</v>
       </c>
@@ -904,7 +904,7 @@
         <v>0.38742048900000015</v>
       </c>
     </row>
-    <row r="40" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L40">
         <v>0.9</v>
       </c>
@@ -916,7 +916,7 @@
         <v>0.34867844010000015</v>
       </c>
     </row>
-    <row r="41" spans="12:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="12:14" x14ac:dyDescent="0.25">
       <c r="L41">
         <v>0.9</v>
       </c>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BD92FD-A7A2-4E73-B679-52FE1B6D58E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70E07B4-50FC-4BBB-894E-8ACD1DF61A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22180" yWindow="3420" windowWidth="19200" windowHeight="10500" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70E07B4-50FC-4BBB-894E-8ACD1DF61A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4577F8D-20B3-487A-96DB-80AC03743B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="11170" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Transmission Rates</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>**Note: We used this value as initial guess; for computed(fits transmiession rate) go to Fitted_Beta_Matrix.csv</t>
+  </si>
+  <si>
+    <t>NGM</t>
+  </si>
+  <si>
+    <t>Beta</t>
   </si>
 </sst>
 </file>
@@ -121,12 +127,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,9 +159,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,21 +498,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA257260-AAAD-4C41-85BD-108389F37899}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" customWidth="1"/>
-    <col min="5" max="5" width="34.453125" customWidth="1"/>
-    <col min="15" max="15" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="34.5" customWidth="1"/>
+    <col min="15" max="15" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1">
         <f>O1*0.01</f>
         <v>0.17800000000000002</v>
@@ -524,7 +545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2">
         <f t="shared" ref="A2:A3" si="1">O2*0.01</f>
         <v>5.5166666700000005E-2</v>
@@ -550,7 +571,7 @@
         <v>3.80833333</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3">
         <f t="shared" si="1"/>
         <v>2.5125000000000001E-2</v>
@@ -573,7 +594,7 @@
         <v>4.6062500000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.125</v>
       </c>
@@ -599,12 +620,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="O6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -615,7 +636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -626,12 +647,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0</v>
       </c>
@@ -645,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1000</v>
       </c>
@@ -653,7 +674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>6246073</v>
       </c>
@@ -674,7 +695,7 @@
         <v>51748740</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1</v>
       </c>
@@ -688,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0</v>
       </c>
@@ -702,7 +723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0</v>
       </c>
@@ -716,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23">
         <f>A1*1*0.5</f>
         <v>8.900000000000001E-2</v>
@@ -742,7 +763,7 @@
         <v>2.5125000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24">
         <f t="shared" ref="A24:C24" si="5">A2*1</f>
         <v>5.5166666700000005E-2</v>
@@ -765,7 +786,7 @@
         <v>3.80833333</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25">
         <f t="shared" ref="A25:C25" si="6">A3*1</f>
         <v>2.5125000000000001E-2</v>
@@ -788,7 +809,7 @@
         <v>4.6062500000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>200</v>
       </c>
@@ -796,7 +817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="L31">
         <v>0.9</v>
       </c>
@@ -808,7 +829,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="L32">
         <v>0.9</v>
       </c>
@@ -820,7 +841,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:19" x14ac:dyDescent="0.15">
       <c r="L33">
         <v>0.9</v>
       </c>
@@ -832,7 +853,7 @@
         <v>0.72900000000000009</v>
       </c>
     </row>
-    <row r="34" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:19" x14ac:dyDescent="0.15">
       <c r="L34">
         <v>0.9</v>
       </c>
@@ -844,7 +865,7 @@
         <v>0.65610000000000013</v>
       </c>
     </row>
-    <row r="35" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:19" x14ac:dyDescent="0.15">
       <c r="L35">
         <v>0.9</v>
       </c>
@@ -856,7 +877,7 @@
         <v>0.59049000000000018</v>
       </c>
     </row>
-    <row r="36" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:19" x14ac:dyDescent="0.15">
       <c r="L36">
         <v>0.9</v>
       </c>
@@ -868,7 +889,7 @@
         <v>0.53144100000000016</v>
       </c>
     </row>
-    <row r="37" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:19" x14ac:dyDescent="0.15">
       <c r="L37">
         <v>0.9</v>
       </c>
@@ -880,7 +901,7 @@
         <v>0.47829690000000014</v>
       </c>
     </row>
-    <row r="38" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:19" x14ac:dyDescent="0.15">
       <c r="L38">
         <v>0.9</v>
       </c>
@@ -892,7 +913,7 @@
         <v>0.43046721000000016</v>
       </c>
     </row>
-    <row r="39" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:19" x14ac:dyDescent="0.15">
       <c r="L39">
         <v>0.9</v>
       </c>
@@ -904,7 +925,7 @@
         <v>0.38742048900000015</v>
       </c>
     </row>
-    <row r="40" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:19" x14ac:dyDescent="0.15">
       <c r="L40">
         <v>0.9</v>
       </c>
@@ -916,7 +937,7 @@
         <v>0.34867844010000015</v>
       </c>
     </row>
-    <row r="41" spans="12:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:19" x14ac:dyDescent="0.15">
       <c r="L41">
         <v>0.9</v>
       </c>
@@ -926,6 +947,124 @@
       <c r="N41">
         <f t="shared" si="7"/>
         <v>0.31381059609000017</v>
+      </c>
+    </row>
+    <row r="43" spans="11:19" x14ac:dyDescent="0.15">
+      <c r="K43" t="s">
+        <v>24</v>
+      </c>
+      <c r="P43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="11:19" x14ac:dyDescent="0.15">
+      <c r="K44">
+        <v>0.19009999999999999</v>
+      </c>
+      <c r="L44">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="M44">
+        <v>2.8E-3</v>
+      </c>
+      <c r="N44">
+        <f>SUM(K44:M44)</f>
+        <v>0.25890000000000002</v>
+      </c>
+      <c r="P44">
+        <v>1.5207999999999999</v>
+      </c>
+      <c r="Q44">
+        <v>0.1575</v>
+      </c>
+      <c r="R44">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="S44">
+        <f>SUM(P44:R44)</f>
+        <v>1.7043999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="11:19" x14ac:dyDescent="0.15">
+      <c r="K45">
+        <v>0.1084</v>
+      </c>
+      <c r="L45">
+        <v>0.155</v>
+      </c>
+      <c r="M45">
+        <v>4.53E-2</v>
+      </c>
+      <c r="N45">
+        <f t="shared" ref="N45:N46" si="8">SUM(K45:M45)</f>
+        <v>0.30869999999999997</v>
+      </c>
+      <c r="P45" s="3">
+        <v>4.3776999999999999</v>
+      </c>
+      <c r="Q45">
+        <v>1.8674999999999999</v>
+      </c>
+      <c r="R45">
+        <v>2.1297000000000001</v>
+      </c>
+      <c r="S45" s="2">
+        <f t="shared" ref="S45:S46" si="9">SUM(P45:R45)</f>
+        <v>8.3749000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="11:19" x14ac:dyDescent="0.15">
+      <c r="K46">
+        <v>0.1356</v>
+      </c>
+      <c r="L46">
+        <v>0.154</v>
+      </c>
+      <c r="M46">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="N46" s="2">
+        <f t="shared" si="8"/>
+        <v>0.40609999999999996</v>
+      </c>
+      <c r="P46">
+        <v>2.4266000000000001</v>
+      </c>
+      <c r="Q46">
+        <v>0.82220000000000004</v>
+      </c>
+      <c r="R46">
+        <v>2.4270999999999998</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="9"/>
+        <v>5.6759000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="11:19" x14ac:dyDescent="0.15">
+      <c r="K47" s="2">
+        <f>SUM(K44:K46)</f>
+        <v>0.43409999999999999</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ref="L47:M47" si="10">SUM(L44:L46)</f>
+        <v>0.375</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="10"/>
+        <v>0.1646</v>
+      </c>
+      <c r="P47" s="2">
+        <f>SUM(P44:P46)</f>
+        <v>8.3251000000000008</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ref="Q47:R47" si="11">SUM(Q44:Q46)</f>
+        <v>2.8472</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="11"/>
+        <v>4.5829000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4577F8D-20B3-487A-96DB-80AC03743B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B89BB21-BF1B-4C24-9063-DFA00EF40918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15345" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA257260-AAAD-4C41-85BD-108389F37899}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43:R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
+++ b/Mathematical Modeling/Thesis modeling - epidemics and politics of public health/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joonc\My_github\My_projects\Mathematical Modeling\Thesis modeling - epidemics and politics of public health\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B89BB21-BF1B-4C24-9063-DFA00EF40918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864FD62-8474-41BD-8042-ED6916A6F563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15345" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15345" xr2:uid="{EB2F4360-3FE8-4036-8206-A53D1A420465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA257260-AAAD-4C41-85BD-108389F37899}">
   <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43:R46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -668,7 +668,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
